--- a/tercer parcial/grupos_visualizacion.xlsx
+++ b/tercer parcial/grupos_visualizacion.xlsx
@@ -304,7 +304,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A42" si="1">A2+1</f>
+        <f t="shared" ref="A3:A45" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>909026.0</v>
+        <v>909027.0</v>
       </c>
       <c r="C28" s="1">
         <v>911489.0</v>
@@ -738,6 +738,53 @@
       </c>
       <c r="B42" s="1">
         <v>907892.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>911598.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>908769.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>906093.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>911717.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>896926.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>908090.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>909724.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>908702.0</v>
       </c>
     </row>
   </sheetData>
